--- a/Alumni_Detail/Alumni Detail.xlsx
+++ b/Alumni_Detail/Alumni Detail.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\Robocon\Website\Official-Website-2022\Alumni_Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC79328-1D39-4067-99F8-0B6D821070C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB39479-B4AE-4B8B-A609-90B91339E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4404" yWindow="612" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="5" r:id="rId1"/>
-    <sheet name="2022" sheetId="1" r:id="rId2"/>
-    <sheet name="2020" sheetId="2" r:id="rId3"/>
-    <sheet name="2019" sheetId="3" r:id="rId4"/>
-    <sheet name="2018" sheetId="4" r:id="rId5"/>
-    <sheet name="2015" sheetId="6" r:id="rId6"/>
+    <sheet name="&quot;2023&quot;" sheetId="5" r:id="rId1"/>
+    <sheet name="&quot;2022&quot;" sheetId="1" r:id="rId2"/>
+    <sheet name="&quot;2020&quot;" sheetId="2" r:id="rId3"/>
+    <sheet name="&quot;2019&quot;" sheetId="3" r:id="rId4"/>
+    <sheet name="&quot;2018&quot;" sheetId="4" r:id="rId5"/>
+    <sheet name="&quot;2015&quot;" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Team Lead</t>
   </si>
   <si>
-    <t>Team Lead"A playground to experiment, experience and excel for the talented and dedicated."</t>
-  </si>
-  <si>
     <t>"The three years of my experience at Robocon was the most accurate sample of the techno-corpotate work life outside the university walls. The time and effort I dedicated to the team led me to upgrade and polish my self as an engineer, a team player and a leader."</t>
   </si>
   <si>
@@ -200,13 +197,22 @@
     <t>https://www.linkedin.com/in/satyapalsinh-gohil-82b409181/</t>
   </si>
   <si>
-    <t>"Amidst the whirl of gears and the hum of motors, the fondest memory of the collective exhilaration of successfully unveiling, through seamless teamwork and boundless camaraderie, our meticulously designed and tirelessly built robot during the competition—a moment where our dedication, collaboration, and shared passion culminated in a triumphant symphony of innovation."</t>
-  </si>
-  <si>
     <t>Satyapalsinh Gohil is currently pursuing MS in Robotics from New York University (NYU).</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>"A playground to experiment, experience and excel for the talented and dedicated."</t>
+  </si>
+  <si>
+    <t>"The best memories in the club for me was the train journey to the competition and the shopping before that."</t>
+  </si>
+  <si>
+    <t>Abhishek Devidas Pawar currently works at NEOGOV as QA Analyst.</t>
+  </si>
+  <si>
+    <t>""Amidst the whirl of gears and the hum of motors, the fondest memory of the collective exhilaration of successfully unveiling, through seamless teamwork and boundless camaraderie, our meticulously designed and tirelessly built robot— a moment where our dedication, collaboration, and shared passion culminated in a triumphant symphony of innovation."</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,10 +624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,13 +679,13 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -688,50 +694,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{01B12A5D-2C30-4AA5-85BA-F7D020311410}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8EDB73-EA1B-4581-AFA5-A644AF95B3A3}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,24 +753,54 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{8F0F7042-5787-487B-AC11-38B7C2E7F682}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{D2B8F94A-B6F5-425E-BD3A-3AD0D317BFBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -807,7 +811,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,45 +853,54 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
+      <c r="I3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -942,31 +955,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -981,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85BE488-F1F3-41F4-934B-A3D72266D4D4}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,7 +1031,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1027,51 +1040,51 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Alumni_Detail/Alumni Detail.xlsx
+++ b/Alumni_Detail/Alumni Detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\Robocon\Website\Official-Website-2022\Alumni_Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB39479-B4AE-4B8B-A609-90B91339E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC203043-7A8E-4D40-9B60-D168BB759EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="612" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4404" yWindow="612" windowWidth="17280" windowHeight="8880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;2023&quot;" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>Satyapalsinh Gohil is currently pursuing MS in Robotics from New York University (NYU).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>"A playground to experiment, experience and excel for the talented and dedicated."</t>
@@ -626,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,14 +675,8 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -705,7 +696,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,14 +743,8 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -781,17 +766,11 @@
       <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
@@ -811,7 +790,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,16 +835,13 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -887,9 +863,6 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
@@ -897,10 +870,10 @@
         <v>48</v>
       </c>
       <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
         <v>58</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +892,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,14 +939,8 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -994,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85BE488-F1F3-41F4-934B-A3D72266D4D4}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,14 +1009,8 @@
       <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
@@ -1071,15 +1032,10 @@
       <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" t="s">
         <v>42</v>
       </c>
@@ -1091,7 +1047,6 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{81407BFD-91A6-44C6-9B6F-09D73EC75686}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{D6410CEC-E55E-4B48-888F-CE93D4763867}"/>
-    <hyperlink ref="G3" r:id="rId3" display="https://www.instagram.com/sorabhgandhi/" xr:uid="{A1427D94-B294-4733-9B07-0A8D1C9D8D22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Alumni_Detail/Alumni Detail.xlsx
+++ b/Alumni_Detail/Alumni Detail.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\Robocon\Website\Official-Website-2022\Alumni_Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC203043-7A8E-4D40-9B60-D168BB759EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8238BE7E-E116-4B2D-8C73-B6A261F7B10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="612" windowWidth="17280" windowHeight="8880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;2023&quot;" sheetId="5" r:id="rId1"/>
     <sheet name="&quot;2022&quot;" sheetId="1" r:id="rId2"/>
-    <sheet name="&quot;2020&quot;" sheetId="2" r:id="rId3"/>
-    <sheet name="&quot;2019&quot;" sheetId="3" r:id="rId4"/>
-    <sheet name="&quot;2018&quot;" sheetId="4" r:id="rId5"/>
-    <sheet name="&quot;2015&quot;" sheetId="6" r:id="rId6"/>
+    <sheet name="&quot;2021&quot;" sheetId="8" r:id="rId3"/>
+    <sheet name="&quot;2020&quot;" sheetId="2" r:id="rId4"/>
+    <sheet name="&quot;2019&quot;" sheetId="3" r:id="rId5"/>
+    <sheet name="&quot;2018&quot;" sheetId="4" r:id="rId6"/>
+    <sheet name="&quot;2016&quot;" sheetId="7" r:id="rId7"/>
+    <sheet name="&quot;2015&quot;" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -80,12 +82,6 @@
     <t>"A room with all the possible tools you can ever imagine and largest Alumni Base within and outside India, among all clubs/teams in SRM."</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
     <t>SAMBED</t>
   </si>
   <si>
@@ -210,13 +206,217 @@
   </si>
   <si>
     <t>""Amidst the whirl of gears and the hum of motors, the fondest memory of the collective exhilaration of successfully unveiling, through seamless teamwork and boundless camaraderie, our meticulously designed and tirelessly built robot— a moment where our dedication, collaboration, and shared passion culminated in a triumphant symphony of innovation."</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100010320369546&amp;mibextid=ZbWKwL/</t>
+  </si>
+  <si>
+    <t>https://instagram.com/santhosh_ravi_official/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/santhosh-ravi-6bbb10190/</t>
+  </si>
+  <si>
+    <t>"The club which improved my experience in various ways."</t>
+  </si>
+  <si>
+    <t>Santhosh Kumar R currently works at Deloitte as a Data analyst.</t>
+  </si>
+  <si>
+    <t>Samarth Patel</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/samp2411_/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/samarth-patel-206451198</t>
+  </si>
+  <si>
+    <t>Samarth Patel is currently preparing for GRE and IELTS.</t>
+  </si>
+  <si>
+    <t>Ankit Kumar Das</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ankitdas2000/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_ankit.13das/</t>
+  </si>
+  <si>
+    <t>"Uncountable cherishable memories for me in this club, but one of them was to constantly test the Rotary Encoders and separate the faulty ones, only to find them all mixed up the next day, by some ignorant personality again and again ;)) This went on for a week XD"</t>
+  </si>
+  <si>
+    <t>Ankit Kumar Das is currently pursuing MBA - BM (Business Management) from Xavier Institute Of Management (XIMB).</t>
+  </si>
+  <si>
+    <t>Subin Babu</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/subinbabu0123?mibextid=ZbWKwL</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_.subin._/</t>
+  </si>
+  <si>
+    <t>"A lot of engineering and a lot more of elbow grease, but every moment in the club will teach you something new."</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/subin-babu-0122</t>
+  </si>
+  <si>
+    <t>Subin Babu currently works at Wabtec Corporation  as a SQE-Electrical.</t>
+  </si>
+  <si>
+    <t>Vaibhav Ram S.V.N.S</t>
+  </si>
+  <si>
+    <t>"A place where I call my home."</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vaibhav-ram-0949b1190/</t>
+  </si>
+  <si>
+    <t>"A place entirely filled with learning, enjoyment, relation and innovation"</t>
+  </si>
+  <si>
+    <t>Vaibhav Ram S.V.N.S currently works at Genpact as a Data Engineer.</t>
+  </si>
+  <si>
+    <t>Deep Patel</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deepresearch/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/isthisdeep/</t>
+  </si>
+  <si>
+    <t>"An arena of brilliance, where dreams soar sky-high on the wings of cutting-edge innovation, etching enduring imprints on the landscape of tomorrow."</t>
+  </si>
+  <si>
+    <t>"Jai Jinjo"</t>
+  </si>
+  <si>
+    <t>Deep Patel is currently pursuing PhD in Robotics for Smart Manufacturing at IIITDM Kancheepuram.</t>
+  </si>
+  <si>
+    <t>Rakesh Ganapathy Raman</t>
+  </si>
+  <si>
+    <t>"A home for all inventors."</t>
+  </si>
+  <si>
+    <t>https://facebook.com/rakeshganapathyraman/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rakeshramang/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/darthintegrator/</t>
+  </si>
+  <si>
+    <t>"The best memories in the club for me was when we successfully rebuilt our robots from scratch in under a week of sleepless nights even after we got struck by the floods."</t>
+  </si>
+  <si>
+    <t>Rakesh Ganapathy Raman currently works at Cellink Bioprinting AB as a Automation Engineer.</t>
+  </si>
+  <si>
+    <t>Kumar Ashutosh</t>
+  </si>
+  <si>
+    <t>Joint Lead</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kumarashutosh22/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ikumarashutosh/</t>
+  </si>
+  <si>
+    <t>"One of the best experiences of my life"</t>
+  </si>
+  <si>
+    <t>Kumar Ashutosh currently works at MuSigma as a Tech Lead.</t>
+  </si>
+  <si>
+    <t>"Best introduction to engineering projects "</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/karthiksethu/</t>
+  </si>
+  <si>
+    <t>Karthik Sethuraman currently works at Cummins Inc as a Technical Specialist .</t>
+  </si>
+  <si>
+    <t>Karthik Sethuraman</t>
+  </si>
+  <si>
+    <t>Santhosh Kumar R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>"Learning skills with practical application in fun way with one of the few smartest people in college."</t>
+  </si>
+  <si>
+    <t>"A symphony of innovation where talented minds compose synchronized marvels of robotics."</t>
+  </si>
+  <si>
+    <t>"The best memories in the club for me was the time when we worked very hard to build UGV, present it at the POC to SIIEC and when we got the funding for the project. Also the ROBOCON competition time memories from the time when deadline was near till the point where the competition ended were great time we spent at the club."</t>
+  </si>
+  <si>
+    <t>"I joined this club during my second year of college life. Even though it was online, it created many memories and learning among my teammates in SPACED domain, went with learning, sharing our knowledges with teammates, projects and so on.... "</t>
+  </si>
+  <si>
+    <t>"The best memories in the club for me was coming late to campus and showing the green robocon card for entry and practising with the badminton bot in mess hall."</t>
+  </si>
+  <si>
+    <t>Md Nisar Raunaq</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/md-nisar-raunaq/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nisar_raunaq/</t>
+  </si>
+  <si>
+    <t>"SRM Team Robocon: Where passion turned into endless nights of innovation and unforgettable memories."</t>
+  </si>
+  <si>
+    <t>Md Nisar Raunaq is currently pursuing MBA(Finance) from NMIMS.</t>
+  </si>
+  <si>
+    <t>"I remember the late nights when time seemed to stand still, as we brainstormed, tinkered, and laughed together. Those moments, when we saw our hard work pay off and our robots come to life, are etched in my memory as some of the best times of my life. The club was more than just a team, it was a family, and those bonds we formed will always be close to my heart."</t>
+  </si>
+  <si>
+    <t>"Brainstorming out of the box solutions with a diverse skill set engineers."</t>
+  </si>
+  <si>
+    <t>Aashray Arya</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aashray-arya-57ab8118b/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aashrayarya/</t>
+  </si>
+  <si>
+    <t>"Place where you learn and implement much more than any classroom."</t>
+  </si>
+  <si>
+    <t>"Learning with the team is an enjoyable experience, and collaborating with a diverse group adds an extra layer of enrichment. The moments we share with our colleagues seem to pass by in the blink of an eye, leaving us unaware of the passage of 3 amazing years. "</t>
+  </si>
+  <si>
+    <t>Aashray Arya currently works at TCS as a System Engineer.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +437,32 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,10 +486,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -545,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC315F-2F99-4EB3-A828-F33449AB3BFC}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,36 +815,184 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
+      <c r="A2" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
+        <v>123</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{6C10D4C0-6642-4B4B-8147-1BD891DA2D60}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{2DB8576C-9393-42D9-84CC-0C779CE1FEDD}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{621DEECB-793A-425E-8B33-7DC393ADAC79}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{6A99E129-AA6E-459F-86AE-B3524DB691F7}"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://www.linkedin.com/in/samarth-patel-206451197" xr:uid="{97FA61D2-CA6A-43CF-82A1-B5C353AA57EF}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{BCDC00C2-6A32-42B9-B4FD-36A12F8570A7}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{82346DA1-C106-4AAE-8F68-3CABEC69C05D}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{43E688BC-0CC1-4B7D-BD46-B262F702C5E3}"/>
+    <hyperlink ref="F3" r:id="rId9" display="https://www.linkedin.com/in/subin-babu-0123" xr:uid="{3020B88C-DF1C-4774-9D88-7BCD40DF3B16}"/>
+    <hyperlink ref="G3" r:id="rId10" xr:uid="{93DADE29-0BB0-4F2B-8AF5-F8E46C239053}"/>
+    <hyperlink ref="F4" r:id="rId11" xr:uid="{600C0F9F-D333-4CB0-9354-5DBFAEA4D2BE}"/>
+    <hyperlink ref="F2" r:id="rId12" xr:uid="{4D0CD863-AECF-4DF0-9467-CFF6AE4E5A75}"/>
+    <hyperlink ref="G2" r:id="rId13" xr:uid="{7317AA19-1ECF-49C4-8BD0-A0CCA554C245}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -624,7 +1001,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,11 +1069,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8EDB73-EA1B-4581-AFA5-A644AF95B3A3}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6777F30-6536-4147-9B38-94A87C522286}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,48 +1109,123 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{9CCFBE64-048E-4E3F-91D6-7017D629E098}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{4C416E74-DDA2-4389-9859-11654D736D10}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8EDB73-EA1B-4581-AFA5-A644AF95B3A3}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
         <v>53</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -785,12 +1237,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2C9746-C8EF-4CF9-B483-E6F161ECF318}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,54 +1278,54 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -887,12 +1339,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB85116-046E-46FA-8FBA-4108C6F9E978}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,42 +1379,102 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{9BC5FB0B-DC69-40C7-882E-E90E21F80F9B}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{9BC5FB0B-DC69-40C7-882E-E90E21F80F9B}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{1A091C24-5720-4ACA-80D7-D155CA27EA7C}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{1FC1E14E-1DD2-4D45-B2A0-8C34BF143A1F}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{9323EA95-30FA-4B33-A042-ACB59BE8D2CB}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{DC007B2A-B1DB-4F56-A4EA-D49B9C6B1260}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{0DCE7A8F-1D96-4703-95EB-1411BCB1B0D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85BE488-F1F3-41F4-934B-A3D72266D4D4}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BAA7E5-EFF5-47FC-A699-E26BAF67FE61}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G2:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,50 +1509,148 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
+      <c r="A2" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{B05D3378-CF30-4E46-A5AB-1926E9895E6E}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{83E12893-DB11-453D-B42D-F640C352D619}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{BF709843-9755-4B3C-8120-C7CAA81E89AD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85BE488-F1F3-41F4-934B-A3D72266D4D4}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Alumni_Detail/Alumni Detail.xlsx
+++ b/Alumni_Detail/Alumni Detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\Robocon\Website\Official-Website-2022\Alumni_Detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8238BE7E-E116-4B2D-8C73-B6A261F7B10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A99E8D-3EAE-4C78-82EC-9F054A9162B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;2023&quot;" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -410,6 +410,24 @@
   </si>
   <si>
     <t>Aashray Arya currently works at TCS as a System Engineer.</t>
+  </si>
+  <si>
+    <t>Manik Narang</t>
+  </si>
+  <si>
+    <t>"Club where curiosity meets competition."</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/manik-narang/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/narangmanik/</t>
+  </si>
+  <si>
+    <t>"The best memories in the club for me was winning the best economical bot in Robocon 2014"</t>
+  </si>
+  <si>
+    <t>Manik Narang currently works at Amazon Web Services as a Software Engineer 2.</t>
   </si>
 </sst>
 </file>
@@ -776,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC315F-2F99-4EB3-A828-F33449AB3BFC}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1474,7 +1492,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85BE488-F1F3-41F4-934B-A3D72266D4D4}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,11 +1671,40 @@
         <v>41</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{81407BFD-91A6-44C6-9B6F-09D73EC75686}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{D6410CEC-E55E-4B48-888F-CE93D4763867}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{A701E188-98E8-46DE-8387-3A92B1B0307D}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{AF717D76-6F18-4D54-959F-CF082E4B9031}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>